--- a/metric.xlsx
+++ b/metric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="8685" activeTab="1"/>
+    <workbookView windowWidth="15420" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.05" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
     <t>83.76 (1.28)</t>
   </si>
   <si>
-    <t>46.87+24.43</t>
+    <t>60.64+16.70</t>
   </si>
   <si>
     <t>86.60+2.62</t>
@@ -1129,7 +1129,7 @@
     <t>65.52 (3.88)</t>
   </si>
   <si>
-    <t>28.20+18.81</t>
+    <t>34.35+13.89</t>
   </si>
   <si>
     <t>22.8902+1.9747</t>
@@ -2027,7 +2027,7 @@
     <t>90.27 +0.12</t>
   </si>
   <si>
-    <t>14.18+4.40</t>
+    <t>15.17</t>
   </si>
   <si>
     <t>96.61+0.49</t>
@@ -2093,7 +2093,7 @@
     <t>95.75 (0.46)</t>
   </si>
   <si>
-    <t>4.94+2.58</t>
+    <t>6.92+5.34</t>
   </si>
   <si>
     <t>10.1380+0.7927</t>
@@ -3476,7 +3476,7 @@
     <t>55.93 +0.45</t>
   </si>
   <si>
-    <t>8.77+0.70</t>
+    <t>8.86+0.45</t>
   </si>
   <si>
     <t>67.32+0.76</t>
@@ -3560,7 +3560,7 @@
     <t>55.57 +0.59</t>
   </si>
   <si>
-    <t>1.07+0.08</t>
+    <t>1.09+0.05</t>
   </si>
   <si>
     <t>15.7494+0.6784</t>
@@ -7471,8 +7471,8 @@
   <sheetPr/>
   <dimension ref="A2:XFD549"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F396" workbookViewId="0">
+      <selection activeCell="N407" sqref="N407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/metric.xlsx
+++ b/metric.xlsx
@@ -4656,7 +4656,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4718,6 +4718,13 @@
       <b/>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFFF00"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -5278,16 +5285,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5296,119 +5300,122 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5549,6 +5556,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7471,8 +7496,8 @@
   <sheetPr/>
   <dimension ref="A2:XFD549"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F396" workbookViewId="0">
-      <selection activeCell="N407" sqref="N407"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F523" workbookViewId="0">
+      <selection activeCell="B445" sqref="B445:R446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11805,44 +11830,44 @@
       <c r="R202" s="10"/>
     </row>
     <row r="203" s="1" customFormat="1" spans="2:18">
-      <c r="B203" s="37" t="s">
+      <c r="B203" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="C203" s="38"/>
-      <c r="D203" s="38"/>
-      <c r="E203" s="38"/>
-      <c r="F203" s="38"/>
-      <c r="G203" s="38"/>
-      <c r="H203" s="38"/>
-      <c r="I203" s="38"/>
-      <c r="J203" s="38"/>
-      <c r="K203" s="38"/>
-      <c r="L203" s="38"/>
-      <c r="M203" s="38"/>
-      <c r="N203" s="38"/>
-      <c r="O203" s="38"/>
-      <c r="P203" s="38"/>
-      <c r="Q203" s="38"/>
-      <c r="R203" s="46"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
+      <c r="I203" s="34"/>
+      <c r="J203" s="34"/>
+      <c r="K203" s="34"/>
+      <c r="L203" s="34"/>
+      <c r="M203" s="34"/>
+      <c r="N203" s="34"/>
+      <c r="O203" s="34"/>
+      <c r="P203" s="34"/>
+      <c r="Q203" s="34"/>
+      <c r="R203" s="44"/>
     </row>
     <row r="204" s="1" customFormat="1" spans="2:18">
-      <c r="B204" s="39"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="40"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="40"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="40"/>
-      <c r="L204" s="40"/>
-      <c r="M204" s="40"/>
-      <c r="N204" s="40"/>
-      <c r="O204" s="40"/>
-      <c r="P204" s="40"/>
-      <c r="Q204" s="40"/>
-      <c r="R204" s="47"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="36"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
+      <c r="L204" s="36"/>
+      <c r="M204" s="36"/>
+      <c r="N204" s="36"/>
+      <c r="O204" s="36"/>
+      <c r="P204" s="36"/>
+      <c r="Q204" s="36"/>
+      <c r="R204" s="45"/>
     </row>
     <row r="205" s="1" customFormat="1" spans="2:18">
       <c r="B205" s="6" t="s">
@@ -12227,44 +12252,44 @@
       <c r="R224" s="16"/>
     </row>
     <row r="225" s="1" customFormat="1" customHeight="1" spans="2:18">
-      <c r="B225" s="33" t="s">
+      <c r="B225" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34"/>
-      <c r="E225" s="34"/>
-      <c r="F225" s="34"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="34"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="34"/>
-      <c r="L225" s="34"/>
-      <c r="M225" s="34"/>
-      <c r="N225" s="34"/>
-      <c r="O225" s="34"/>
-      <c r="P225" s="34"/>
-      <c r="Q225" s="34"/>
-      <c r="R225" s="44"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="22"/>
     </row>
     <row r="226" s="1" customFormat="1" customHeight="1" spans="2:18">
-      <c r="B226" s="35"/>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-      <c r="E226" s="36"/>
-      <c r="F226" s="36"/>
-      <c r="G226" s="36"/>
-      <c r="H226" s="36"/>
-      <c r="I226" s="36"/>
-      <c r="J226" s="36"/>
-      <c r="K226" s="36"/>
-      <c r="L226" s="36"/>
-      <c r="M226" s="36"/>
-      <c r="N226" s="36"/>
-      <c r="O226" s="36"/>
-      <c r="P226" s="36"/>
-      <c r="Q226" s="36"/>
-      <c r="R226" s="45"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="23"/>
     </row>
     <row r="227" s="1" customFormat="1" spans="2:18">
       <c r="B227" s="6" t="s">
@@ -12703,44 +12728,44 @@
       <c r="B246" s="10"/>
     </row>
     <row r="247" s="1" customFormat="1" spans="2:18">
-      <c r="B247" s="37" t="s">
+      <c r="B247" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="C247" s="38"/>
-      <c r="D247" s="38"/>
-      <c r="E247" s="38"/>
-      <c r="F247" s="38"/>
-      <c r="G247" s="38"/>
-      <c r="H247" s="38"/>
-      <c r="I247" s="38"/>
-      <c r="J247" s="38"/>
-      <c r="K247" s="38"/>
-      <c r="L247" s="38"/>
-      <c r="M247" s="38"/>
-      <c r="N247" s="38"/>
-      <c r="O247" s="38"/>
-      <c r="P247" s="38"/>
-      <c r="Q247" s="38"/>
-      <c r="R247" s="46"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="34"/>
+      <c r="E247" s="34"/>
+      <c r="F247" s="34"/>
+      <c r="G247" s="34"/>
+      <c r="H247" s="34"/>
+      <c r="I247" s="34"/>
+      <c r="J247" s="34"/>
+      <c r="K247" s="34"/>
+      <c r="L247" s="34"/>
+      <c r="M247" s="34"/>
+      <c r="N247" s="34"/>
+      <c r="O247" s="34"/>
+      <c r="P247" s="34"/>
+      <c r="Q247" s="34"/>
+      <c r="R247" s="44"/>
     </row>
     <row r="248" s="1" customFormat="1" spans="2:18">
-      <c r="B248" s="39"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="40"/>
-      <c r="F248" s="40"/>
-      <c r="G248" s="40"/>
-      <c r="H248" s="40"/>
-      <c r="I248" s="40"/>
-      <c r="J248" s="40"/>
-      <c r="K248" s="40"/>
-      <c r="L248" s="40"/>
-      <c r="M248" s="40"/>
-      <c r="N248" s="40"/>
-      <c r="O248" s="40"/>
-      <c r="P248" s="40"/>
-      <c r="Q248" s="40"/>
-      <c r="R248" s="47"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="36"/>
+      <c r="D248" s="36"/>
+      <c r="E248" s="36"/>
+      <c r="F248" s="36"/>
+      <c r="G248" s="36"/>
+      <c r="H248" s="36"/>
+      <c r="I248" s="36"/>
+      <c r="J248" s="36"/>
+      <c r="K248" s="36"/>
+      <c r="L248" s="36"/>
+      <c r="M248" s="36"/>
+      <c r="N248" s="36"/>
+      <c r="O248" s="36"/>
+      <c r="P248" s="36"/>
+      <c r="Q248" s="36"/>
+      <c r="R248" s="45"/>
     </row>
     <row r="249" s="1" customFormat="1" spans="2:18">
       <c r="B249" s="6" t="s">
@@ -29523,44 +29548,44 @@
       <c r="B268" s="10"/>
     </row>
     <row r="269" s="1" customFormat="1" spans="2:18">
-      <c r="B269" s="33" t="s">
+      <c r="B269" s="48" t="s">
         <v>877</v>
       </c>
-      <c r="C269" s="34"/>
-      <c r="D269" s="34"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="34"/>
-      <c r="G269" s="34"/>
-      <c r="H269" s="34"/>
-      <c r="I269" s="34"/>
-      <c r="J269" s="34"/>
-      <c r="K269" s="34"/>
-      <c r="L269" s="34"/>
-      <c r="M269" s="34"/>
-      <c r="N269" s="34"/>
-      <c r="O269" s="34"/>
-      <c r="P269" s="34"/>
-      <c r="Q269" s="34"/>
-      <c r="R269" s="44"/>
+      <c r="C269" s="49"/>
+      <c r="D269" s="49"/>
+      <c r="E269" s="49"/>
+      <c r="F269" s="49"/>
+      <c r="G269" s="49"/>
+      <c r="H269" s="49"/>
+      <c r="I269" s="49"/>
+      <c r="J269" s="49"/>
+      <c r="K269" s="49"/>
+      <c r="L269" s="49"/>
+      <c r="M269" s="49"/>
+      <c r="N269" s="49"/>
+      <c r="O269" s="49"/>
+      <c r="P269" s="49"/>
+      <c r="Q269" s="49"/>
+      <c r="R269" s="52"/>
     </row>
     <row r="270" s="1" customFormat="1" spans="2:18">
-      <c r="B270" s="35"/>
-      <c r="C270" s="36"/>
-      <c r="D270" s="36"/>
-      <c r="E270" s="36"/>
-      <c r="F270" s="36"/>
-      <c r="G270" s="36"/>
-      <c r="H270" s="36"/>
-      <c r="I270" s="36"/>
-      <c r="J270" s="36"/>
-      <c r="K270" s="36"/>
-      <c r="L270" s="36"/>
-      <c r="M270" s="36"/>
-      <c r="N270" s="36"/>
-      <c r="O270" s="36"/>
-      <c r="P270" s="36"/>
-      <c r="Q270" s="36"/>
-      <c r="R270" s="45"/>
+      <c r="B270" s="50"/>
+      <c r="C270" s="51"/>
+      <c r="D270" s="51"/>
+      <c r="E270" s="51"/>
+      <c r="F270" s="51"/>
+      <c r="G270" s="51"/>
+      <c r="H270" s="51"/>
+      <c r="I270" s="51"/>
+      <c r="J270" s="51"/>
+      <c r="K270" s="51"/>
+      <c r="L270" s="51"/>
+      <c r="M270" s="51"/>
+      <c r="N270" s="51"/>
+      <c r="O270" s="51"/>
+      <c r="P270" s="51"/>
+      <c r="Q270" s="51"/>
+      <c r="R270" s="53"/>
     </row>
     <row r="271" s="1" customFormat="1" spans="2:18">
       <c r="B271" s="6" t="s">
@@ -29698,44 +29723,44 @@
     </row>
     <row r="279" s="1" customFormat="1" ht="15.75"/>
     <row r="280" s="1" customFormat="1" spans="2:18">
-      <c r="B280" s="37" t="s">
+      <c r="B280" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="C280" s="38"/>
-      <c r="D280" s="38"/>
-      <c r="E280" s="38"/>
-      <c r="F280" s="38"/>
-      <c r="G280" s="38"/>
-      <c r="H280" s="38"/>
-      <c r="I280" s="38"/>
-      <c r="J280" s="38"/>
-      <c r="K280" s="38"/>
-      <c r="L280" s="38"/>
-      <c r="M280" s="38"/>
-      <c r="N280" s="38"/>
-      <c r="O280" s="38"/>
-      <c r="P280" s="38"/>
-      <c r="Q280" s="38"/>
-      <c r="R280" s="46"/>
+      <c r="C280" s="34"/>
+      <c r="D280" s="34"/>
+      <c r="E280" s="34"/>
+      <c r="F280" s="34"/>
+      <c r="G280" s="34"/>
+      <c r="H280" s="34"/>
+      <c r="I280" s="34"/>
+      <c r="J280" s="34"/>
+      <c r="K280" s="34"/>
+      <c r="L280" s="34"/>
+      <c r="M280" s="34"/>
+      <c r="N280" s="34"/>
+      <c r="O280" s="34"/>
+      <c r="P280" s="34"/>
+      <c r="Q280" s="34"/>
+      <c r="R280" s="44"/>
     </row>
     <row r="281" s="1" customFormat="1" spans="2:18">
-      <c r="B281" s="39"/>
-      <c r="C281" s="40"/>
-      <c r="D281" s="40"/>
-      <c r="E281" s="40"/>
-      <c r="F281" s="40"/>
-      <c r="G281" s="40"/>
-      <c r="H281" s="40"/>
-      <c r="I281" s="40"/>
-      <c r="J281" s="40"/>
-      <c r="K281" s="40"/>
-      <c r="L281" s="40"/>
-      <c r="M281" s="40"/>
-      <c r="N281" s="40"/>
-      <c r="O281" s="40"/>
-      <c r="P281" s="40"/>
-      <c r="Q281" s="40"/>
-      <c r="R281" s="47"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="36"/>
+      <c r="D281" s="36"/>
+      <c r="E281" s="36"/>
+      <c r="F281" s="36"/>
+      <c r="G281" s="36"/>
+      <c r="H281" s="36"/>
+      <c r="I281" s="36"/>
+      <c r="J281" s="36"/>
+      <c r="K281" s="36"/>
+      <c r="L281" s="36"/>
+      <c r="M281" s="36"/>
+      <c r="N281" s="36"/>
+      <c r="O281" s="36"/>
+      <c r="P281" s="36"/>
+      <c r="Q281" s="36"/>
+      <c r="R281" s="45"/>
     </row>
     <row r="282" s="1" customFormat="1" spans="2:18">
       <c r="B282" s="6" t="s">
@@ -29985,44 +30010,44 @@
       <c r="R301" s="16"/>
     </row>
     <row r="302" s="1" customFormat="1" spans="2:18">
-      <c r="B302" s="37" t="s">
+      <c r="B302" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="C302" s="38"/>
-      <c r="D302" s="38"/>
-      <c r="E302" s="38"/>
-      <c r="F302" s="38"/>
-      <c r="G302" s="38"/>
-      <c r="H302" s="38"/>
-      <c r="I302" s="38"/>
-      <c r="J302" s="38"/>
-      <c r="K302" s="38"/>
-      <c r="L302" s="38"/>
-      <c r="M302" s="38"/>
-      <c r="N302" s="38"/>
-      <c r="O302" s="38"/>
-      <c r="P302" s="38"/>
-      <c r="Q302" s="38"/>
-      <c r="R302" s="46"/>
+      <c r="C302" s="34"/>
+      <c r="D302" s="34"/>
+      <c r="E302" s="34"/>
+      <c r="F302" s="34"/>
+      <c r="G302" s="34"/>
+      <c r="H302" s="34"/>
+      <c r="I302" s="34"/>
+      <c r="J302" s="34"/>
+      <c r="K302" s="34"/>
+      <c r="L302" s="34"/>
+      <c r="M302" s="34"/>
+      <c r="N302" s="34"/>
+      <c r="O302" s="34"/>
+      <c r="P302" s="34"/>
+      <c r="Q302" s="34"/>
+      <c r="R302" s="44"/>
     </row>
     <row r="303" s="1" customFormat="1" spans="2:18">
-      <c r="B303" s="39"/>
-      <c r="C303" s="40"/>
-      <c r="D303" s="40"/>
-      <c r="E303" s="40"/>
-      <c r="F303" s="40"/>
-      <c r="G303" s="40"/>
-      <c r="H303" s="40"/>
-      <c r="I303" s="40"/>
-      <c r="J303" s="40"/>
-      <c r="K303" s="40"/>
-      <c r="L303" s="40"/>
-      <c r="M303" s="40"/>
-      <c r="N303" s="40"/>
-      <c r="O303" s="40"/>
-      <c r="P303" s="40"/>
-      <c r="Q303" s="40"/>
-      <c r="R303" s="47"/>
+      <c r="B303" s="35"/>
+      <c r="C303" s="36"/>
+      <c r="D303" s="36"/>
+      <c r="E303" s="36"/>
+      <c r="F303" s="36"/>
+      <c r="G303" s="36"/>
+      <c r="H303" s="36"/>
+      <c r="I303" s="36"/>
+      <c r="J303" s="36"/>
+      <c r="K303" s="36"/>
+      <c r="L303" s="36"/>
+      <c r="M303" s="36"/>
+      <c r="N303" s="36"/>
+      <c r="O303" s="36"/>
+      <c r="P303" s="36"/>
+      <c r="Q303" s="36"/>
+      <c r="R303" s="45"/>
     </row>
     <row r="304" s="1" customFormat="1" spans="2:18">
       <c r="B304" s="6" t="s">
@@ -30817,44 +30842,44 @@
       <c r="B345" s="10"/>
     </row>
     <row r="346" s="1" customFormat="1" spans="2:18">
-      <c r="B346" s="37" t="s">
+      <c r="B346" s="33" t="s">
         <v>1016</v>
       </c>
-      <c r="C346" s="38"/>
-      <c r="D346" s="38"/>
-      <c r="E346" s="38"/>
-      <c r="F346" s="38"/>
-      <c r="G346" s="38"/>
-      <c r="H346" s="38"/>
-      <c r="I346" s="38"/>
-      <c r="J346" s="38"/>
-      <c r="K346" s="38"/>
-      <c r="L346" s="38"/>
-      <c r="M346" s="38"/>
-      <c r="N346" s="38"/>
-      <c r="O346" s="38"/>
-      <c r="P346" s="38"/>
-      <c r="Q346" s="38"/>
-      <c r="R346" s="46"/>
+      <c r="C346" s="34"/>
+      <c r="D346" s="34"/>
+      <c r="E346" s="34"/>
+      <c r="F346" s="34"/>
+      <c r="G346" s="34"/>
+      <c r="H346" s="34"/>
+      <c r="I346" s="34"/>
+      <c r="J346" s="34"/>
+      <c r="K346" s="34"/>
+      <c r="L346" s="34"/>
+      <c r="M346" s="34"/>
+      <c r="N346" s="34"/>
+      <c r="O346" s="34"/>
+      <c r="P346" s="34"/>
+      <c r="Q346" s="34"/>
+      <c r="R346" s="44"/>
     </row>
     <row r="347" s="1" customFormat="1" spans="2:18">
-      <c r="B347" s="39"/>
-      <c r="C347" s="40"/>
-      <c r="D347" s="40"/>
-      <c r="E347" s="40"/>
-      <c r="F347" s="40"/>
-      <c r="G347" s="40"/>
-      <c r="H347" s="40"/>
-      <c r="I347" s="40"/>
-      <c r="J347" s="40"/>
-      <c r="K347" s="40"/>
-      <c r="L347" s="40"/>
-      <c r="M347" s="40"/>
-      <c r="N347" s="40"/>
-      <c r="O347" s="40"/>
-      <c r="P347" s="40"/>
-      <c r="Q347" s="40"/>
-      <c r="R347" s="47"/>
+      <c r="B347" s="35"/>
+      <c r="C347" s="36"/>
+      <c r="D347" s="36"/>
+      <c r="E347" s="36"/>
+      <c r="F347" s="36"/>
+      <c r="G347" s="36"/>
+      <c r="H347" s="36"/>
+      <c r="I347" s="36"/>
+      <c r="J347" s="36"/>
+      <c r="K347" s="36"/>
+      <c r="L347" s="36"/>
+      <c r="M347" s="36"/>
+      <c r="N347" s="36"/>
+      <c r="O347" s="36"/>
+      <c r="P347" s="36"/>
+      <c r="Q347" s="36"/>
+      <c r="R347" s="45"/>
     </row>
     <row r="348" s="1" customFormat="1" spans="2:18">
       <c r="B348" s="6" t="s">
@@ -31516,7 +31541,7 @@
       <c r="D382" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P382" s="48"/>
+      <c r="P382" s="54"/>
       <c r="Q382" s="10"/>
       <c r="R382" s="25"/>
     </row>
@@ -32565,7 +32590,7 @@
       <c r="I437" s="17" t="s">
         <v>1257</v>
       </c>
-      <c r="P437" s="48"/>
+      <c r="P437" s="54"/>
       <c r="Q437" s="10"/>
       <c r="R437" s="25"/>
     </row>
@@ -33712,44 +33737,44 @@
     </row>
     <row r="499" s="1" customFormat="1" ht="15.75"/>
     <row r="500" s="1" customFormat="1" spans="2:18">
-      <c r="B500" s="37" t="s">
+      <c r="B500" s="33" t="s">
         <v>1425</v>
       </c>
-      <c r="C500" s="38"/>
-      <c r="D500" s="38"/>
-      <c r="E500" s="38"/>
-      <c r="F500" s="38"/>
-      <c r="G500" s="38"/>
-      <c r="H500" s="38"/>
-      <c r="I500" s="38"/>
-      <c r="J500" s="38"/>
-      <c r="K500" s="38"/>
-      <c r="L500" s="38"/>
-      <c r="M500" s="38"/>
-      <c r="N500" s="38"/>
-      <c r="O500" s="38"/>
-      <c r="P500" s="38"/>
-      <c r="Q500" s="38"/>
-      <c r="R500" s="46"/>
+      <c r="C500" s="34"/>
+      <c r="D500" s="34"/>
+      <c r="E500" s="34"/>
+      <c r="F500" s="34"/>
+      <c r="G500" s="34"/>
+      <c r="H500" s="34"/>
+      <c r="I500" s="34"/>
+      <c r="J500" s="34"/>
+      <c r="K500" s="34"/>
+      <c r="L500" s="34"/>
+      <c r="M500" s="34"/>
+      <c r="N500" s="34"/>
+      <c r="O500" s="34"/>
+      <c r="P500" s="34"/>
+      <c r="Q500" s="34"/>
+      <c r="R500" s="44"/>
     </row>
     <row r="501" s="1" customFormat="1" spans="2:18">
-      <c r="B501" s="39"/>
-      <c r="C501" s="40"/>
-      <c r="D501" s="40"/>
-      <c r="E501" s="40"/>
-      <c r="F501" s="40"/>
-      <c r="G501" s="40"/>
-      <c r="H501" s="40"/>
-      <c r="I501" s="40"/>
-      <c r="J501" s="40"/>
-      <c r="K501" s="40"/>
-      <c r="L501" s="40"/>
-      <c r="M501" s="40"/>
-      <c r="N501" s="40"/>
-      <c r="O501" s="40"/>
-      <c r="P501" s="40"/>
-      <c r="Q501" s="40"/>
-      <c r="R501" s="47"/>
+      <c r="B501" s="35"/>
+      <c r="C501" s="36"/>
+      <c r="D501" s="36"/>
+      <c r="E501" s="36"/>
+      <c r="F501" s="36"/>
+      <c r="G501" s="36"/>
+      <c r="H501" s="36"/>
+      <c r="I501" s="36"/>
+      <c r="J501" s="36"/>
+      <c r="K501" s="36"/>
+      <c r="L501" s="36"/>
+      <c r="M501" s="36"/>
+      <c r="N501" s="36"/>
+      <c r="O501" s="36"/>
+      <c r="P501" s="36"/>
+      <c r="Q501" s="36"/>
+      <c r="R501" s="45"/>
     </row>
     <row r="502" s="1" customFormat="1" spans="2:18">
       <c r="B502" s="6" t="s">
@@ -33964,44 +33989,44 @@
     </row>
     <row r="510" s="1" customFormat="1" ht="15.75"/>
     <row r="511" s="1" customFormat="1" spans="2:18">
-      <c r="B511" s="37" t="s">
+      <c r="B511" s="33" t="s">
         <v>1466</v>
       </c>
-      <c r="C511" s="38"/>
-      <c r="D511" s="38"/>
-      <c r="E511" s="38"/>
-      <c r="F511" s="38"/>
-      <c r="G511" s="38"/>
-      <c r="H511" s="38"/>
-      <c r="I511" s="38"/>
-      <c r="J511" s="38"/>
-      <c r="K511" s="38"/>
-      <c r="L511" s="38"/>
-      <c r="M511" s="38"/>
-      <c r="N511" s="38"/>
-      <c r="O511" s="38"/>
-      <c r="P511" s="38"/>
-      <c r="Q511" s="38"/>
-      <c r="R511" s="46"/>
+      <c r="C511" s="34"/>
+      <c r="D511" s="34"/>
+      <c r="E511" s="34"/>
+      <c r="F511" s="34"/>
+      <c r="G511" s="34"/>
+      <c r="H511" s="34"/>
+      <c r="I511" s="34"/>
+      <c r="J511" s="34"/>
+      <c r="K511" s="34"/>
+      <c r="L511" s="34"/>
+      <c r="M511" s="34"/>
+      <c r="N511" s="34"/>
+      <c r="O511" s="34"/>
+      <c r="P511" s="34"/>
+      <c r="Q511" s="34"/>
+      <c r="R511" s="44"/>
     </row>
     <row r="512" s="1" customFormat="1" spans="2:18">
-      <c r="B512" s="39"/>
-      <c r="C512" s="40"/>
-      <c r="D512" s="40"/>
-      <c r="E512" s="40"/>
-      <c r="F512" s="40"/>
-      <c r="G512" s="40"/>
-      <c r="H512" s="40"/>
-      <c r="I512" s="40"/>
-      <c r="J512" s="40"/>
-      <c r="K512" s="40"/>
-      <c r="L512" s="40"/>
-      <c r="M512" s="40"/>
-      <c r="N512" s="40"/>
-      <c r="O512" s="40"/>
-      <c r="P512" s="40"/>
-      <c r="Q512" s="40"/>
-      <c r="R512" s="47"/>
+      <c r="B512" s="35"/>
+      <c r="C512" s="36"/>
+      <c r="D512" s="36"/>
+      <c r="E512" s="36"/>
+      <c r="F512" s="36"/>
+      <c r="G512" s="36"/>
+      <c r="H512" s="36"/>
+      <c r="I512" s="36"/>
+      <c r="J512" s="36"/>
+      <c r="K512" s="36"/>
+      <c r="L512" s="36"/>
+      <c r="M512" s="36"/>
+      <c r="N512" s="36"/>
+      <c r="O512" s="36"/>
+      <c r="P512" s="36"/>
+      <c r="Q512" s="36"/>
+      <c r="R512" s="45"/>
     </row>
     <row r="513" s="1" customFormat="1" spans="2:18">
       <c r="B513" s="6" t="s">
@@ -34160,44 +34185,44 @@
     </row>
     <row r="521" s="1" customFormat="1" ht="15.75"/>
     <row r="522" s="1" customFormat="1" spans="2:18">
-      <c r="B522" s="37" t="s">
+      <c r="B522" s="33" t="s">
         <v>1497</v>
       </c>
-      <c r="C522" s="38"/>
-      <c r="D522" s="38"/>
-      <c r="E522" s="38"/>
-      <c r="F522" s="38"/>
-      <c r="G522" s="38"/>
-      <c r="H522" s="38"/>
-      <c r="I522" s="38"/>
-      <c r="J522" s="38"/>
-      <c r="K522" s="38"/>
-      <c r="L522" s="38"/>
-      <c r="M522" s="38"/>
-      <c r="N522" s="38"/>
-      <c r="O522" s="38"/>
-      <c r="P522" s="38"/>
-      <c r="Q522" s="38"/>
-      <c r="R522" s="46"/>
+      <c r="C522" s="34"/>
+      <c r="D522" s="34"/>
+      <c r="E522" s="34"/>
+      <c r="F522" s="34"/>
+      <c r="G522" s="34"/>
+      <c r="H522" s="34"/>
+      <c r="I522" s="34"/>
+      <c r="J522" s="34"/>
+      <c r="K522" s="34"/>
+      <c r="L522" s="34"/>
+      <c r="M522" s="34"/>
+      <c r="N522" s="34"/>
+      <c r="O522" s="34"/>
+      <c r="P522" s="34"/>
+      <c r="Q522" s="34"/>
+      <c r="R522" s="44"/>
     </row>
     <row r="523" s="1" customFormat="1" spans="2:18">
-      <c r="B523" s="39"/>
-      <c r="C523" s="40"/>
-      <c r="D523" s="40"/>
-      <c r="E523" s="40"/>
-      <c r="F523" s="40"/>
-      <c r="G523" s="40"/>
-      <c r="H523" s="40"/>
-      <c r="I523" s="40"/>
-      <c r="J523" s="40"/>
-      <c r="K523" s="40"/>
-      <c r="L523" s="40"/>
-      <c r="M523" s="40"/>
-      <c r="N523" s="40"/>
-      <c r="O523" s="40"/>
-      <c r="P523" s="40"/>
-      <c r="Q523" s="40"/>
-      <c r="R523" s="47"/>
+      <c r="B523" s="35"/>
+      <c r="C523" s="36"/>
+      <c r="D523" s="36"/>
+      <c r="E523" s="36"/>
+      <c r="F523" s="36"/>
+      <c r="G523" s="36"/>
+      <c r="H523" s="36"/>
+      <c r="I523" s="36"/>
+      <c r="J523" s="36"/>
+      <c r="K523" s="36"/>
+      <c r="L523" s="36"/>
+      <c r="M523" s="36"/>
+      <c r="N523" s="36"/>
+      <c r="O523" s="36"/>
+      <c r="P523" s="36"/>
+      <c r="Q523" s="36"/>
+      <c r="R523" s="45"/>
     </row>
     <row r="524" s="1" customFormat="1" spans="2:18">
       <c r="B524" s="6" t="s">
@@ -34531,156 +34556,156 @@
       <c r="M541" s="7"/>
     </row>
     <row r="542" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A542" s="49"/>
-      <c r="B542" s="49"/>
-      <c r="C542" s="49"/>
-      <c r="D542" s="49"/>
-      <c r="E542" s="49"/>
-      <c r="F542" s="49"/>
-      <c r="G542" s="49"/>
-      <c r="H542" s="49"/>
-      <c r="I542" s="49"/>
-      <c r="J542" s="49"/>
-      <c r="K542" s="49"/>
-      <c r="L542" s="49"/>
-      <c r="M542" s="49"/>
-      <c r="N542" s="49"/>
-      <c r="O542" s="49"/>
-      <c r="P542" s="49"/>
-      <c r="Q542" s="49"/>
+      <c r="A542" s="55"/>
+      <c r="B542" s="55"/>
+      <c r="C542" s="55"/>
+      <c r="D542" s="55"/>
+      <c r="E542" s="55"/>
+      <c r="F542" s="55"/>
+      <c r="G542" s="55"/>
+      <c r="H542" s="55"/>
+      <c r="I542" s="55"/>
+      <c r="J542" s="55"/>
+      <c r="K542" s="55"/>
+      <c r="L542" s="55"/>
+      <c r="M542" s="55"/>
+      <c r="N542" s="55"/>
+      <c r="O542" s="55"/>
+      <c r="P542" s="55"/>
+      <c r="Q542" s="55"/>
     </row>
     <row r="543" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A543" s="49"/>
-      <c r="B543" s="49"/>
-      <c r="C543" s="49"/>
-      <c r="D543" s="49"/>
-      <c r="E543" s="49"/>
-      <c r="F543" s="49"/>
-      <c r="G543" s="49"/>
-      <c r="H543" s="49"/>
-      <c r="I543" s="49"/>
-      <c r="J543" s="49"/>
-      <c r="K543" s="49"/>
-      <c r="L543" s="49"/>
-      <c r="M543" s="49"/>
-      <c r="N543" s="49"/>
-      <c r="O543" s="49"/>
-      <c r="P543" s="49"/>
-      <c r="Q543" s="49"/>
+      <c r="A543" s="55"/>
+      <c r="B543" s="55"/>
+      <c r="C543" s="55"/>
+      <c r="D543" s="55"/>
+      <c r="E543" s="55"/>
+      <c r="F543" s="55"/>
+      <c r="G543" s="55"/>
+      <c r="H543" s="55"/>
+      <c r="I543" s="55"/>
+      <c r="J543" s="55"/>
+      <c r="K543" s="55"/>
+      <c r="L543" s="55"/>
+      <c r="M543" s="55"/>
+      <c r="N543" s="55"/>
+      <c r="O543" s="55"/>
+      <c r="P543" s="55"/>
+      <c r="Q543" s="55"/>
     </row>
     <row r="544" s="1" customFormat="1" spans="1:17">
-      <c r="A544" s="50"/>
-      <c r="B544" s="50"/>
-      <c r="C544" s="50"/>
-      <c r="D544" s="50"/>
-      <c r="E544" s="50"/>
-      <c r="F544" s="50"/>
-      <c r="G544" s="50"/>
-      <c r="H544" s="50"/>
-      <c r="I544" s="50"/>
-      <c r="J544" s="50"/>
-      <c r="K544" s="50"/>
-      <c r="L544" s="50"/>
-      <c r="M544" s="50"/>
-      <c r="N544" s="50"/>
-      <c r="O544" s="50"/>
-      <c r="P544" s="50"/>
-      <c r="Q544" s="50"/>
+      <c r="A544" s="56"/>
+      <c r="B544" s="56"/>
+      <c r="C544" s="56"/>
+      <c r="D544" s="56"/>
+      <c r="E544" s="56"/>
+      <c r="F544" s="56"/>
+      <c r="G544" s="56"/>
+      <c r="H544" s="56"/>
+      <c r="I544" s="56"/>
+      <c r="J544" s="56"/>
+      <c r="K544" s="56"/>
+      <c r="L544" s="56"/>
+      <c r="M544" s="56"/>
+      <c r="N544" s="56"/>
+      <c r="O544" s="56"/>
+      <c r="P544" s="56"/>
+      <c r="Q544" s="56"/>
     </row>
     <row r="545" s="1" customFormat="1" spans="1:17">
-      <c r="A545" s="51"/>
-      <c r="B545" s="52"/>
-      <c r="C545" s="53"/>
-      <c r="D545" s="52"/>
-      <c r="E545" s="52"/>
-      <c r="F545" s="52"/>
-      <c r="G545" s="52"/>
-      <c r="H545" s="54"/>
-      <c r="I545" s="52"/>
-      <c r="J545" s="52"/>
-      <c r="K545" s="52"/>
-      <c r="L545" s="52"/>
-      <c r="M545" s="52"/>
-      <c r="N545" s="52"/>
-      <c r="O545" s="52"/>
-      <c r="P545" s="52"/>
-      <c r="Q545" s="52"/>
+      <c r="A545" s="57"/>
+      <c r="B545" s="58"/>
+      <c r="C545" s="59"/>
+      <c r="D545" s="58"/>
+      <c r="E545" s="58"/>
+      <c r="F545" s="58"/>
+      <c r="G545" s="58"/>
+      <c r="H545" s="60"/>
+      <c r="I545" s="58"/>
+      <c r="J545" s="58"/>
+      <c r="K545" s="58"/>
+      <c r="L545" s="58"/>
+      <c r="M545" s="58"/>
+      <c r="N545" s="58"/>
+      <c r="O545" s="58"/>
+      <c r="P545" s="58"/>
+      <c r="Q545" s="58"/>
     </row>
     <row r="546" s="1" customFormat="1" spans="1:17">
-      <c r="A546" s="51"/>
-      <c r="B546" s="52"/>
-      <c r="C546" s="53"/>
-      <c r="D546" s="52"/>
-      <c r="E546" s="52"/>
-      <c r="F546" s="52"/>
-      <c r="G546" s="52"/>
-      <c r="H546" s="54"/>
-      <c r="I546" s="52"/>
-      <c r="J546" s="52"/>
-      <c r="K546" s="52"/>
-      <c r="L546" s="52"/>
-      <c r="M546" s="52"/>
-      <c r="N546" s="52"/>
-      <c r="O546" s="52"/>
-      <c r="P546" s="52"/>
-      <c r="Q546" s="52"/>
+      <c r="A546" s="57"/>
+      <c r="B546" s="58"/>
+      <c r="C546" s="59"/>
+      <c r="D546" s="58"/>
+      <c r="E546" s="58"/>
+      <c r="F546" s="58"/>
+      <c r="G546" s="58"/>
+      <c r="H546" s="60"/>
+      <c r="I546" s="58"/>
+      <c r="J546" s="58"/>
+      <c r="K546" s="58"/>
+      <c r="L546" s="58"/>
+      <c r="M546" s="58"/>
+      <c r="N546" s="58"/>
+      <c r="O546" s="58"/>
+      <c r="P546" s="58"/>
+      <c r="Q546" s="58"/>
     </row>
     <row r="547" s="1" customFormat="1" spans="1:17">
-      <c r="A547" s="51"/>
-      <c r="B547" s="52"/>
-      <c r="C547" s="53"/>
-      <c r="D547" s="52"/>
-      <c r="E547" s="52"/>
-      <c r="F547" s="52"/>
-      <c r="G547" s="52"/>
-      <c r="H547" s="54"/>
-      <c r="I547" s="52"/>
-      <c r="J547" s="52"/>
-      <c r="K547" s="52"/>
-      <c r="L547" s="52"/>
-      <c r="M547" s="52"/>
-      <c r="N547" s="52"/>
-      <c r="O547" s="52"/>
-      <c r="P547" s="52"/>
-      <c r="Q547" s="52"/>
+      <c r="A547" s="57"/>
+      <c r="B547" s="58"/>
+      <c r="C547" s="59"/>
+      <c r="D547" s="58"/>
+      <c r="E547" s="58"/>
+      <c r="F547" s="58"/>
+      <c r="G547" s="58"/>
+      <c r="H547" s="60"/>
+      <c r="I547" s="58"/>
+      <c r="J547" s="58"/>
+      <c r="K547" s="58"/>
+      <c r="L547" s="58"/>
+      <c r="M547" s="58"/>
+      <c r="N547" s="58"/>
+      <c r="O547" s="58"/>
+      <c r="P547" s="58"/>
+      <c r="Q547" s="58"/>
     </row>
     <row r="548" s="1" customFormat="1" spans="1:17">
-      <c r="A548" s="51"/>
-      <c r="B548" s="52"/>
-      <c r="C548" s="53"/>
-      <c r="D548" s="52"/>
-      <c r="E548" s="52"/>
-      <c r="F548" s="52"/>
-      <c r="G548" s="52"/>
-      <c r="H548" s="54"/>
-      <c r="I548" s="52"/>
-      <c r="J548" s="52"/>
-      <c r="K548" s="52"/>
-      <c r="L548" s="52"/>
-      <c r="M548" s="52"/>
-      <c r="N548" s="52"/>
-      <c r="O548" s="52"/>
-      <c r="P548" s="52"/>
-      <c r="Q548" s="52"/>
+      <c r="A548" s="57"/>
+      <c r="B548" s="58"/>
+      <c r="C548" s="59"/>
+      <c r="D548" s="58"/>
+      <c r="E548" s="58"/>
+      <c r="F548" s="58"/>
+      <c r="G548" s="58"/>
+      <c r="H548" s="60"/>
+      <c r="I548" s="58"/>
+      <c r="J548" s="58"/>
+      <c r="K548" s="58"/>
+      <c r="L548" s="58"/>
+      <c r="M548" s="58"/>
+      <c r="N548" s="58"/>
+      <c r="O548" s="58"/>
+      <c r="P548" s="58"/>
+      <c r="Q548" s="58"/>
     </row>
     <row r="549" s="1" customFormat="1" spans="1:17">
-      <c r="A549" s="51"/>
-      <c r="B549" s="52"/>
-      <c r="C549" s="53"/>
-      <c r="D549" s="52"/>
-      <c r="E549" s="52"/>
-      <c r="F549" s="52"/>
-      <c r="G549" s="52"/>
-      <c r="H549" s="54"/>
-      <c r="I549" s="52"/>
-      <c r="J549" s="52"/>
-      <c r="K549" s="52"/>
-      <c r="L549" s="52"/>
-      <c r="M549" s="52"/>
-      <c r="N549" s="52"/>
-      <c r="O549" s="52"/>
-      <c r="P549" s="52"/>
-      <c r="Q549" s="52"/>
+      <c r="A549" s="57"/>
+      <c r="B549" s="58"/>
+      <c r="C549" s="59"/>
+      <c r="D549" s="58"/>
+      <c r="E549" s="58"/>
+      <c r="F549" s="58"/>
+      <c r="G549" s="58"/>
+      <c r="H549" s="60"/>
+      <c r="I549" s="58"/>
+      <c r="J549" s="58"/>
+      <c r="K549" s="58"/>
+      <c r="L549" s="58"/>
+      <c r="M549" s="58"/>
+      <c r="N549" s="58"/>
+      <c r="O549" s="58"/>
+      <c r="P549" s="58"/>
+      <c r="Q549" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="68">

--- a/metric.xlsx
+++ b/metric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15420" windowHeight="8145" activeTab="1"/>
+    <workbookView windowWidth="14505" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.05" sheetId="1" r:id="rId1"/>
@@ -7496,8 +7496,8 @@
   <sheetPr/>
   <dimension ref="A2:XFD549"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F523" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445:R446"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C499" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522:R523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
